--- a/與Anita作業討論整理.xlsx
+++ b/與Anita作業討論整理.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\教練區\作業問題區\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94B0D5A-B2F7-487D-A7D4-554CD06C2EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC31F5F6-266C-4023-8739-7B9FE5F862EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="930" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.25-12.31作業任務問題" sheetId="1" r:id="rId1"/>
-    <sheet name="12.18-12.24作業任務問題" sheetId="2" r:id="rId2"/>
-    <sheet name="待補充資料" sheetId="5" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId2"/>
+    <sheet name="12.18-12.24作業任務問題" sheetId="2" r:id="rId3"/>
+    <sheet name="待補充資料" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>1.   詢問此CSS選取器的用法</t>
   </si>
@@ -976,12 +977,55 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>作業範例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TODOLIST - 切版</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>含原生JS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+六角RWD作業範例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codepen.io/yunhsiu/pen/zYbYway</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codepen.io/yunhsiu/pen/dyropQJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何利用 Sass 的 @mixin 功能，讓撰寫 RWD 網站變的輕而易舉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>anita-note前端學習筆記</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+flex css demo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>element-plus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,6 +1246,39 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1236,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1255,13 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1284,25 +1354,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1313,16 +1373,47 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1987,582 +2078,582 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:31" ht="70.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
     </row>
     <row r="2" spans="1:31" ht="36.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="409.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="36.75">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:31" ht="265.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:31" ht="36.75">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="33.75">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:31" ht="33.75">
-      <c r="A12" s="11"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:31" ht="33.75">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:31" ht="33.75">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:31" s="22" customFormat="1" ht="25.5">
-      <c r="A15" s="27" t="s">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" s="17" customFormat="1" ht="25.5">
+      <c r="A15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:31" ht="25.5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:30" ht="25.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="23.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:30" ht="23.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
     </row>
     <row r="20" spans="1:30" ht="25.5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="36.75">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="73.5" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
     </row>
     <row r="24" spans="1:30" ht="25.5">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="354.75" customHeight="1">
       <c r="A25" s="33"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
     </row>
     <row r="26" spans="1:30" ht="25.5">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:30" ht="16.5">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="16.5">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:1" ht="16.5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="25.5">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="25.5">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="25.5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="23.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="52" spans="1:12" ht="25.5">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="25.5">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="22"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="169.5" customHeight="1">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2587,6 +2678,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF9209B-2280-4873-808D-18C4F4D0B38F}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="67.5">
+      <c r="A1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="15" spans="1:16" ht="27.75">
+      <c r="A15" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="27.75">
+      <c r="A21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="12" customHeight="1"/>
+    <row r="25" spans="1:12" hidden="1"/>
+    <row r="26" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="30" spans="1:12" ht="27.75">
+      <c r="A30" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="A7:D10"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2:D3" r:id="rId1" display="https://codepen.io/yunhsiu/pen/zYbYway" xr:uid="{EF2D9F04-96B5-4E1F-9F2D-44EAD9F73A57}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{90193BEC-7544-42D5-BCFB-A84FD45363B2}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{38147AF7-7DED-48EE-93C0-609A1942BEEA}"/>
+    <hyperlink ref="A7:D10" r:id="rId4" display="https://codepen.io/yunhsiu/pen/dyropQJ" xr:uid="{C8F05FCB-B787-4660-8A96-F78A1E47DC99}"/>
+    <hyperlink ref="A15:P15" r:id="rId5" display="如何利用 Sass 的 @mixin 功能，讓撰寫 RWD 網站變的輕而易舉" xr:uid="{BE266F90-8E53-4C53-BDE0-A13450A96C34}"/>
+    <hyperlink ref="A21:J21" r:id="rId6" display="anita-note前端學習筆記" xr:uid="{97898475-6A4D-4ADD-AD45-7C6A7EDC4640}"/>
+    <hyperlink ref="A26:H26" r:id="rId7" display="https://codepen.io/yunhsiu/pen/PoVxjjO" xr:uid="{4CE26B7B-888E-4568-9542-B3B06ED10539}"/>
+    <hyperlink ref="A30:L30" r:id="rId8" display="element-plus" xr:uid="{EDE61CFF-7F66-4D47-9141-3F4E4A32E8E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C5F85F-6A87-4AFA-AE84-49CBA3286A73}">
   <dimension ref="A1:J116"/>
   <sheetViews>
@@ -2980,7 +3264,7 @@
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="25.5">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2988,66 +3272,66 @@
       <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3063,7 +3347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C90083-4F34-4A8F-BC7A-51777A8F03CA}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -3074,81 +3358,81 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3162,6 +3446,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100900A7805284FAA4B9581570564EEBACF" ma:contentTypeVersion="2" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="2e178cf7d5de43a5408514a82f7dc95b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="db13328b-35ce-4383-867a-5f77d659e483" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="569f5b864551d87c947bf6da13eaaf11" ns3:_="">
     <xsd:import namespace="db13328b-35ce-4383-867a-5f77d659e483"/>
@@ -3293,22 +3592,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B6E174-8330-4423-932C-A936E1A62F84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="db13328b-35ce-4383-867a-5f77d659e483"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10D4362-1983-4413-AABD-BAB23F586529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC882FA-F7F4-4391-9331-B1974E6EC640}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3324,28 +3632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10D4362-1983-4413-AABD-BAB23F586529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B6E174-8330-4423-932C-A936E1A62F84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="db13328b-35ce-4383-867a-5f77d659e483"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>